--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,132 +46,135 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>cheese</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>ever</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>tea</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
@@ -190,16 +193,19 @@
     <t>bought</t>
   </si>
   <si>
+    <t>makes</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>quality</t>
-  </si>
-  <si>
-    <t>like</t>
   </si>
   <si>
     <t>one</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,7 +583,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2790697674418605</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +691,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +717,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8985507246376812</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +743,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8637770897832817</v>
+        <v>0.8984375</v>
       </c>
       <c r="L6">
-        <v>558</v>
+        <v>115</v>
       </c>
       <c r="M6">
-        <v>558</v>
+        <v>115</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -763,13 +769,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.871517027863777</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>563</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>563</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -781,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -789,13 +795,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -815,13 +821,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7727272727272727</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -841,13 +847,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7532467532467533</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -893,13 +899,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.684931506849315</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -919,13 +925,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6576271186440678</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L13">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -937,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>101</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -945,13 +951,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.647887323943662</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -963,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -971,13 +977,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6461538461538462</v>
+        <v>0.6542372881355932</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -989,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -997,13 +1003,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6420545746388443</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L16">
-        <v>800</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>800</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1015,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>446</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1023,13 +1029,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.625</v>
+        <v>0.640625</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1041,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1049,13 +1055,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6228571428571429</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="L18">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1067,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1075,13 +1081,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.6176470588235294</v>
+        <v>0.6324237560192616</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>788</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>788</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1093,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1101,13 +1107,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.6122448979591837</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1119,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1127,13 +1133,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.6041666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1145,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1153,13 +1159,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5964912280701754</v>
+        <v>0.5942857142857143</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1171,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1179,13 +1185,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5833333333333334</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1197,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1205,13 +1211,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5714285714285714</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1223,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1231,13 +1237,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L25">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1249,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1257,13 +1263,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5076923076923077</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1275,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1283,13 +1289,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.5029940119760479</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L27">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="M27">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1301,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>83</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1309,13 +1315,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.4939759036144578</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1327,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1335,13 +1341,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.4615384615384616</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L29">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M29">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1353,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1361,13 +1367,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.4567901234567901</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1379,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1387,13 +1393,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.4473684210526316</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1405,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1413,13 +1419,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.43</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L32">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1431,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1439,25 +1445,25 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.4285714285714285</v>
+        <v>0.43</v>
       </c>
       <c r="L33">
+        <v>43</v>
+      </c>
+      <c r="M33">
+        <v>43</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>57</v>
-      </c>
-      <c r="M33">
-        <v>57</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>76</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1465,13 +1471,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.3855421686746988</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L34">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1483,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1491,13 +1497,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.3533834586466165</v>
+        <v>0.3915662650602409</v>
       </c>
       <c r="L35">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="M35">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1509,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1517,13 +1523,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.3431372549019608</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L36">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M36">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1535,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1543,13 +1549,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.3346303501945525</v>
+        <v>0.3463035019455253</v>
       </c>
       <c r="L37">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M37">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1561,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1569,13 +1575,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.297029702970297</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1587,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1595,13 +1601,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.2949640287769784</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="L39">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M39">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1613,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1621,13 +1627,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.2685185185185185</v>
+        <v>0.2945205479452055</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1639,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>79</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1647,13 +1653,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.2684931506849315</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L41">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1665,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>534</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1673,13 +1679,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.2516556291390729</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L42">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1691,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>113</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1699,13 +1705,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.2346609257265877</v>
+        <v>0.2488038277511962</v>
       </c>
       <c r="L43">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="M43">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1717,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>711</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1725,13 +1731,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.2296650717703349</v>
+        <v>0.2378902045209903</v>
       </c>
       <c r="L44">
-        <v>48</v>
+        <v>221</v>
       </c>
       <c r="M44">
-        <v>48</v>
+        <v>221</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1743,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>161</v>
+        <v>708</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1751,13 +1757,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.2163009404388715</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="L45">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="M45">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1769,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>250</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1777,13 +1783,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.1708609271523179</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L46">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="M46">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1795,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>626</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1803,13 +1809,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.1624040920716112</v>
+        <v>0.1668874172185431</v>
       </c>
       <c r="L47">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M47">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1821,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>655</v>
+        <v>629</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1829,13 +1835,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.134020618556701</v>
+        <v>0.1611253196930946</v>
       </c>
       <c r="L48">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="M48">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1847,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>252</v>
+        <v>656</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1855,25 +1861,25 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.1243243243243243</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="L49">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M49">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N49">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>324</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1881,13 +1887,13 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.121654501216545</v>
+        <v>0.123989218328841</v>
       </c>
       <c r="L50">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M50">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1899,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>361</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1907,13 +1913,13 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.1113636363636364</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1925,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>391</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1933,13 +1939,13 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.08771929824561403</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="L52">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1951,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>416</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1959,13 +1965,13 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.07637231503579953</v>
+        <v>0.1068181818181818</v>
       </c>
       <c r="L53">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M53">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -1977,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -1985,25 +1991,25 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.07460545193687231</v>
+        <v>0.07675438596491228</v>
       </c>
       <c r="L54">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M54">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N54">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>645</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2011,13 +2017,13 @@
         <v>62</v>
       </c>
       <c r="K55">
-        <v>0.05975723622782447</v>
+        <v>0.07173601147776183</v>
       </c>
       <c r="L55">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M55">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="N55">
         <v>0.98</v>
@@ -2029,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>1007</v>
+        <v>647</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2037,13 +2043,13 @@
         <v>63</v>
       </c>
       <c r="K56">
-        <v>0.03284356093344858</v>
+        <v>0.06921241050119331</v>
       </c>
       <c r="L56">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2055,7 +2061,59 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>1119</v>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K57">
+        <v>0.05135387488328665</v>
+      </c>
+      <c r="L57">
+        <v>55</v>
+      </c>
+      <c r="M57">
+        <v>56</v>
+      </c>
+      <c r="N57">
+        <v>0.98</v>
+      </c>
+      <c r="O57">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K58">
+        <v>0.02854671280276817</v>
+      </c>
+      <c r="L58">
+        <v>33</v>
+      </c>
+      <c r="M58">
+        <v>34</v>
+      </c>
+      <c r="N58">
+        <v>0.97</v>
+      </c>
+      <c r="O58">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
